--- a/Original_Data/Student_Marks.xlsx
+++ b/Original_Data/Student_Marks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E7B24F-8998-4388-B0E6-1B0449F6F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59EC2FB-1E5F-435B-9150-9A229D95EEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Converting To Table" sheetId="2" r:id="rId1"/>
+    <sheet name="Structured References Sheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -218,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +244,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -264,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -369,11 +381,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -394,6 +505,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,14 +869,903 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1D1708-4B3C-425C-B86A-BC07FC144132}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42</v>
+      </c>
+      <c r="D2" s="21">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25">
+        <v>65</v>
+      </c>
+      <c r="D3" s="25">
+        <v>58</v>
+      </c>
+      <c r="E3" s="26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25">
+        <v>44</v>
+      </c>
+      <c r="D4" s="25">
+        <v>39</v>
+      </c>
+      <c r="E4" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="25">
+        <v>41</v>
+      </c>
+      <c r="D5" s="25">
+        <v>21</v>
+      </c>
+      <c r="E5" s="26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="25">
+        <v>59</v>
+      </c>
+      <c r="D6" s="25">
+        <v>59</v>
+      </c>
+      <c r="E6" s="26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25">
+        <v>96</v>
+      </c>
+      <c r="D7" s="25">
+        <v>70</v>
+      </c>
+      <c r="E7" s="26">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="25">
+        <v>57</v>
+      </c>
+      <c r="D8" s="25">
+        <v>42</v>
+      </c>
+      <c r="E8" s="26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="25">
+        <v>41</v>
+      </c>
+      <c r="D9" s="25">
+        <v>96</v>
+      </c>
+      <c r="E9" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43</v>
+      </c>
+      <c r="D10" s="25">
+        <v>95</v>
+      </c>
+      <c r="E10" s="26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="25">
+        <v>89</v>
+      </c>
+      <c r="D11" s="25">
+        <v>24</v>
+      </c>
+      <c r="E11" s="26">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="25">
+        <v>63</v>
+      </c>
+      <c r="D12" s="25">
+        <v>62</v>
+      </c>
+      <c r="E12" s="26">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="25">
+        <v>97</v>
+      </c>
+      <c r="D13" s="25">
+        <v>62</v>
+      </c>
+      <c r="E13" s="26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25">
+        <v>36</v>
+      </c>
+      <c r="D14" s="25">
+        <v>71</v>
+      </c>
+      <c r="E14" s="26">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="25">
+        <v>44</v>
+      </c>
+      <c r="D15" s="25">
+        <v>72</v>
+      </c>
+      <c r="E15" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="25">
+        <v>74</v>
+      </c>
+      <c r="D16" s="25">
+        <v>46</v>
+      </c>
+      <c r="E16" s="26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="25">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25">
+        <v>30</v>
+      </c>
+      <c r="E17" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="25">
+        <v>97</v>
+      </c>
+      <c r="D18" s="25">
+        <v>40</v>
+      </c>
+      <c r="E18" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="25">
+        <v>70</v>
+      </c>
+      <c r="D19" s="25">
+        <v>59</v>
+      </c>
+      <c r="E19" s="26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="25">
+        <v>49</v>
+      </c>
+      <c r="D20" s="25">
+        <v>97</v>
+      </c>
+      <c r="E20" s="26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25">
+        <v>33</v>
+      </c>
+      <c r="D21" s="25">
+        <v>33</v>
+      </c>
+      <c r="E21" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="25">
+        <v>48</v>
+      </c>
+      <c r="D22" s="25">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="25">
+        <v>93</v>
+      </c>
+      <c r="D23" s="25">
+        <v>73</v>
+      </c>
+      <c r="E23" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="25">
+        <v>77</v>
+      </c>
+      <c r="D24" s="25">
+        <v>74</v>
+      </c>
+      <c r="E24" s="26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="25">
+        <v>89</v>
+      </c>
+      <c r="E25" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="25">
+        <v>54</v>
+      </c>
+      <c r="D26" s="25">
+        <v>30</v>
+      </c>
+      <c r="E26" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="25">
+        <v>21</v>
+      </c>
+      <c r="D27" s="25">
+        <v>95</v>
+      </c>
+      <c r="E27" s="26">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="25">
+        <v>29</v>
+      </c>
+      <c r="D28" s="25">
+        <v>80</v>
+      </c>
+      <c r="E28" s="26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="25">
+        <v>17</v>
+      </c>
+      <c r="D29" s="25">
+        <v>67</v>
+      </c>
+      <c r="E29" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="25">
+        <v>26</v>
+      </c>
+      <c r="D30" s="25">
+        <v>55</v>
+      </c>
+      <c r="E30" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="25">
+        <v>15</v>
+      </c>
+      <c r="D31" s="25">
+        <v>89</v>
+      </c>
+      <c r="E31" s="26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="25">
+        <v>78</v>
+      </c>
+      <c r="D32" s="25">
+        <v>23</v>
+      </c>
+      <c r="E32" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="25">
+        <v>43</v>
+      </c>
+      <c r="D33" s="25">
+        <v>90</v>
+      </c>
+      <c r="E33" s="26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="25">
+        <v>52</v>
+      </c>
+      <c r="D34" s="25">
+        <v>62</v>
+      </c>
+      <c r="E34" s="26">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="25">
+        <v>52</v>
+      </c>
+      <c r="D35" s="25">
+        <v>39</v>
+      </c>
+      <c r="E35" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="25">
+        <v>59</v>
+      </c>
+      <c r="D36" s="25">
+        <v>21</v>
+      </c>
+      <c r="E36" s="26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="25">
+        <v>76</v>
+      </c>
+      <c r="D37" s="25">
+        <v>12</v>
+      </c>
+      <c r="E37" s="26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>37</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="25">
+        <v>49</v>
+      </c>
+      <c r="D38" s="25">
+        <v>68</v>
+      </c>
+      <c r="E38" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="25">
+        <v>63</v>
+      </c>
+      <c r="D39" s="25">
+        <v>63</v>
+      </c>
+      <c r="E39" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="25">
+        <v>81</v>
+      </c>
+      <c r="D40" s="25">
+        <v>39</v>
+      </c>
+      <c r="E40" s="26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>40</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="25">
+        <v>86</v>
+      </c>
+      <c r="D41" s="25">
+        <v>85</v>
+      </c>
+      <c r="E41" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="25">
+        <v>49</v>
+      </c>
+      <c r="D42" s="25">
+        <v>40</v>
+      </c>
+      <c r="E42" s="26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>42</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="25">
+        <v>48</v>
+      </c>
+      <c r="D43" s="25">
+        <v>10</v>
+      </c>
+      <c r="E43" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="25">
+        <v>92</v>
+      </c>
+      <c r="D44" s="25">
+        <v>37</v>
+      </c>
+      <c r="E44" s="26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="25">
+        <v>22</v>
+      </c>
+      <c r="D45" s="25">
+        <v>60</v>
+      </c>
+      <c r="E45" s="26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="25">
+        <v>36</v>
+      </c>
+      <c r="D46" s="25">
+        <v>19</v>
+      </c>
+      <c r="E46" s="26">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="25">
+        <v>33</v>
+      </c>
+      <c r="D47" s="25">
+        <v>51</v>
+      </c>
+      <c r="E47" s="26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="25">
+        <v>61</v>
+      </c>
+      <c r="D48" s="25">
+        <v>38</v>
+      </c>
+      <c r="E48" s="26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="25">
+        <v>86</v>
+      </c>
+      <c r="D49" s="25">
+        <v>35</v>
+      </c>
+      <c r="E49" s="26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="25">
+        <v>18</v>
+      </c>
+      <c r="D50" s="25">
+        <v>88</v>
+      </c>
+      <c r="E50" s="26">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>50</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="28">
+        <v>75</v>
+      </c>
+      <c r="D51" s="28">
+        <v>75</v>
+      </c>
+      <c r="E51" s="29">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
